--- a/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56AC8B27-36FA-48D5-A8F2-683E13776F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CDE68A7-2804-4587-8D90-59AE42612395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9507FB97-AABC-4BD7-902C-039FCB0B3329}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78E8A4D4-D921-41EE-BEDD-87113CF297F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>44,16%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>38,33%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>46,79%</t>
   </si>
   <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -137,25 +137,25 @@
     <t>9,96%</t>
   </si>
   <si>
-    <t>23,84%</t>
+    <t>24,1%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,19 +164,19 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>2,34%</t>
@@ -185,7 +185,7 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>4,28%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,325 +197,322 @@
     <t>39,85%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>34,33%</t>
   </si>
   <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
+    <t>34,13%</t>
+  </si>
+  <si>
     <t>39,93%</t>
   </si>
   <si>
     <t>40,37%</t>
   </si>
   <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>46,03%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -524,25 +521,25 @@
     <t>40,12%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>36,81%</t>
   </si>
   <si>
-    <t>34,57%</t>
+    <t>34,76%</t>
   </si>
   <si>
     <t>39,15%</t>
@@ -551,37 +548,37 @@
     <t>43,51%</t>
   </si>
   <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>44,43%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>18,29%</t>
@@ -590,25 +587,25 @@
     <t>16,17%</t>
   </si>
   <si>
-    <t>20,78%</t>
+    <t>20,97%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>3,25%</t>
@@ -617,124 +614,118 @@
     <t>2,44%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,33%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>44,24%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1149,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C0C822-475D-4577-8932-7E7E5D38007B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EFB39F-C225-4BA2-9755-51369AD3994F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1563,10 +1554,10 @@
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,13 +1572,13 @@
         <v>221309</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>473</v>
@@ -1596,13 +1587,13 @@
         <v>269339</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>748</v>
@@ -1611,13 +1602,13 @@
         <v>490649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,7 +1623,7 @@
         <v>87329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>70</v>
@@ -2122,7 +2113,7 @@
         <v>831</v>
       </c>
       <c r="N20" s="7">
-        <v>675098</v>
+        <v>675097</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>140</v>
@@ -2152,7 +2143,7 @@
         <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>108</v>
@@ -2161,28 +2152,28 @@
         <v>71181</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>175</v>
       </c>
       <c r="N21" s="7">
-        <v>135672</v>
+        <v>135671</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2188,13 @@
         <v>14978</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -2212,7 +2203,7 @@
         <v>21594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>155</v>
@@ -2230,10 +2221,10 @@
         <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2266,7 @@
         <v>1711</v>
       </c>
       <c r="N23" s="7">
-        <v>1593654</v>
+        <v>1593653</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2289,7 +2280,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2301,13 +2292,13 @@
         <v>384921</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>483</v>
@@ -2316,13 +2307,13 @@
         <v>389192</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>846</v>
@@ -2331,13 +2322,13 @@
         <v>774113</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2343,13 @@
         <v>417521</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>709</v>
@@ -2367,13 +2358,13 @@
         <v>508027</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>1163</v>
@@ -2382,13 +2373,13 @@
         <v>925548</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2394,13 @@
         <v>139806</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>303</v>
@@ -2418,13 +2409,13 @@
         <v>209109</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>465</v>
@@ -2433,13 +2424,13 @@
         <v>348915</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2445,13 @@
         <v>17263</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -2469,13 +2460,13 @@
         <v>37207</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>78</v>
@@ -2484,13 +2475,13 @@
         <v>54469</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2549,13 @@
         <v>1489171</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>1669</v>
@@ -2573,13 +2564,13 @@
         <v>1425807</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>2930</v>
@@ -2588,13 +2579,13 @@
         <v>2914978</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2600,13 @@
         <v>1393789</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>2526</v>
@@ -2624,13 +2615,13 @@
         <v>1671044</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>4053</v>
@@ -2639,13 +2630,13 @@
         <v>3064833</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2651,13 @@
         <v>408612</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>939</v>
@@ -2675,13 +2666,13 @@
         <v>563602</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>1425</v>
@@ -2690,13 +2681,13 @@
         <v>972214</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2702,13 @@
         <v>78376</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>176</v>
@@ -2726,13 +2717,13 @@
         <v>116725</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
@@ -2741,13 +2732,13 @@
         <v>195101</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CDE68A7-2804-4587-8D90-59AE42612395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CA592F-5D86-4931-A57C-56D2C4EDB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78E8A4D4-D921-41EE-BEDD-87113CF297F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89031E62-3FAD-4B7D-AD42-0327BD8A9770}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>39,85%</t>
@@ -299,7 +299,7 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>48,17%</t>
@@ -410,7 +410,7 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>47,18%</t>
@@ -1140,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EFB39F-C225-4BA2-9755-51369AD3994F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABC30E-09F2-48E7-84AD-3A137CD86DCF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CA592F-5D86-4931-A57C-56D2C4EDB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1CAE95-C658-4ADF-9164-E4580F6598F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89031E62-3FAD-4B7D-AD42-0327BD8A9770}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49C4DF6F-1A82-41EB-A585-89B7755438AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>44,16%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>38,33%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>46,79%</t>
   </si>
   <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -137,259 +137,259 @@
     <t>9,96%</t>
   </si>
   <si>
-    <t>24,1%</t>
+    <t>23,84%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>13,49%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -398,13 +398,13 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>3,52%</t>
@@ -416,103 +416,106 @@
     <t>47,18%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>46,54%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>42,78%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
   </si>
   <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -521,25 +524,25 @@
     <t>40,12%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
   </si>
   <si>
     <t>36,81%</t>
   </si>
   <si>
-    <t>34,76%</t>
+    <t>34,57%</t>
   </si>
   <si>
     <t>39,15%</t>
@@ -548,37 +551,37 @@
     <t>43,51%</t>
   </si>
   <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
   </si>
   <si>
     <t>44,43%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>18,29%</t>
@@ -587,25 +590,25 @@
     <t>16,17%</t>
   </si>
   <si>
-    <t>20,97%</t>
+    <t>20,78%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>3,25%</t>
@@ -614,118 +617,124 @@
     <t>2,44%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>44,24%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABC30E-09F2-48E7-84AD-3A137CD86DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE52B449-8438-4C2B-A3D4-BC4836312E08}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1554,10 +1563,10 @@
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,13 +1581,13 @@
         <v>221309</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>473</v>
@@ -1587,13 +1596,13 @@
         <v>269339</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>748</v>
@@ -1602,13 +1611,13 @@
         <v>490649</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,7 +1632,7 @@
         <v>87329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>70</v>
@@ -2113,7 +2122,7 @@
         <v>831</v>
       </c>
       <c r="N20" s="7">
-        <v>675097</v>
+        <v>675098</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>140</v>
@@ -2143,7 +2152,7 @@
         <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>108</v>
@@ -2152,28 +2161,28 @@
         <v>71181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>175</v>
       </c>
       <c r="N21" s="7">
-        <v>135671</v>
+        <v>135672</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2197,13 @@
         <v>14978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -2203,7 +2212,7 @@
         <v>21594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>155</v>
@@ -2221,10 +2230,10 @@
         <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2275,7 @@
         <v>1711</v>
       </c>
       <c r="N23" s="7">
-        <v>1593653</v>
+        <v>1593654</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2280,7 +2289,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2301,13 @@
         <v>384921</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>483</v>
@@ -2307,13 +2316,13 @@
         <v>389192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>846</v>
@@ -2322,13 +2331,13 @@
         <v>774113</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2352,13 @@
         <v>417521</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>709</v>
@@ -2358,13 +2367,13 @@
         <v>508027</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>1163</v>
@@ -2373,13 +2382,13 @@
         <v>925548</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2403,13 @@
         <v>139806</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>303</v>
@@ -2409,13 +2418,13 @@
         <v>209109</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>465</v>
@@ -2424,13 +2433,13 @@
         <v>348915</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2454,13 @@
         <v>17263</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -2460,13 +2469,13 @@
         <v>37207</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>78</v>
@@ -2475,13 +2484,13 @@
         <v>54469</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2558,13 @@
         <v>1489171</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>1669</v>
@@ -2564,13 +2573,13 @@
         <v>1425807</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>2930</v>
@@ -2579,13 +2588,13 @@
         <v>2914978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2609,13 @@
         <v>1393789</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>2526</v>
@@ -2615,13 +2624,13 @@
         <v>1671044</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>4053</v>
@@ -2630,13 +2639,13 @@
         <v>3064833</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2660,13 @@
         <v>408612</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>939</v>
@@ -2666,13 +2675,13 @@
         <v>563602</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>1425</v>
@@ -2681,13 +2690,13 @@
         <v>972214</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2711,13 @@
         <v>78376</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>176</v>
@@ -2717,13 +2726,13 @@
         <v>116725</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
@@ -2732,13 +2741,13 @@
         <v>195101</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2803,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1CAE95-C658-4ADF-9164-E4580F6598F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF774D6-D4ED-4415-A2CD-ED7BE4818648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49C4DF6F-1A82-41EB-A585-89B7755438AD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EF5AA54-6794-492E-8C46-ADFBB77B5D02}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -65,673 +65,550 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
   </si>
   <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -1149,8 +1026,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE52B449-8438-4C2B-A3D4-BC4836312E08}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD29123B-FD6D-422A-8293-ADC2053FDD1D}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1267,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="D4" s="7">
-        <v>45037</v>
+        <v>261244</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1282,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>55</v>
+        <v>337</v>
       </c>
       <c r="I4" s="7">
-        <v>37494</v>
+        <v>220615</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1297,10 +1174,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>98</v>
+        <v>578</v>
       </c>
       <c r="N4" s="7">
-        <v>82531</v>
+        <v>481858</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1318,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>325</v>
       </c>
       <c r="D5" s="7">
-        <v>39094</v>
+        <v>253316</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1333,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>582</v>
       </c>
       <c r="I5" s="7">
-        <v>59314</v>
+        <v>309502</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1348,10 +1225,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>159</v>
+        <v>907</v>
       </c>
       <c r="N5" s="7">
-        <v>98408</v>
+        <v>562818</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1369,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>15940</v>
+        <v>97982</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1384,10 +1261,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="I6" s="7">
-        <v>26538</v>
+        <v>108592</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1399,10 +1276,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>87</v>
+        <v>383</v>
       </c>
       <c r="N6" s="7">
-        <v>42478</v>
+        <v>206575</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1420,10 +1297,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>1912</v>
+        <v>21401</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1435,10 +1312,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>3432</v>
+        <v>25923</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1450,19 +1327,19 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>5345</v>
+        <v>47324</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,99 +1348,99 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>728</v>
       </c>
       <c r="D8" s="7">
-        <v>101982</v>
+        <v>633943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>235</v>
+        <v>1215</v>
       </c>
       <c r="I8" s="7">
-        <v>126779</v>
+        <v>664632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>353</v>
+        <v>1943</v>
       </c>
       <c r="N8" s="7">
-        <v>228761</v>
+        <v>1298575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>198</v>
+        <v>372</v>
       </c>
       <c r="D9" s="7">
-        <v>218456</v>
+        <v>666898</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>474</v>
+      </c>
+      <c r="I9" s="7">
+        <v>350189</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>282</v>
-      </c>
-      <c r="I9" s="7">
-        <v>200837</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>846</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1017087</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>480</v>
-      </c>
-      <c r="N9" s="7">
-        <v>419294</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>59</v>
@@ -1575,10 +1452,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="D10" s="7">
-        <v>221309</v>
+        <v>401358</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1590,10 +1467,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>473</v>
+        <v>708</v>
       </c>
       <c r="I10" s="7">
-        <v>269339</v>
+        <v>425090</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1605,10 +1482,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>748</v>
+        <v>1152</v>
       </c>
       <c r="N10" s="7">
-        <v>490649</v>
+        <v>826448</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1626,10 +1503,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D11" s="7">
-        <v>87329</v>
+        <v>95011</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1641,10 +1518,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>90567</v>
+        <v>149377</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1656,10 +1533,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>296</v>
+        <v>402</v>
       </c>
       <c r="N11" s="7">
-        <v>177896</v>
+        <v>244388</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1680,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>21144</v>
+        <v>26158</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1692,10 +1569,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>24348</v>
+        <v>27311</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1707,10 +1584,10 @@
         <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7">
-        <v>45492</v>
+        <v>53469</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -1728,49 +1605,49 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>610</v>
+        <v>960</v>
       </c>
       <c r="D13" s="7">
-        <v>548239</v>
+        <v>1189424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>980</v>
+        <v>1504</v>
       </c>
       <c r="I13" s="7">
-        <v>585091</v>
+        <v>951968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>1590</v>
+        <v>2464</v>
       </c>
       <c r="N13" s="7">
-        <v>1133330</v>
+        <v>2141392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,10 +1658,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>498863</v>
+        <v>330595</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1796,10 +1673,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>474</v>
+        <v>375</v>
       </c>
       <c r="I14" s="7">
-        <v>393864</v>
+        <v>472927</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1811,10 +1688,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>846</v>
+        <v>660</v>
       </c>
       <c r="N14" s="7">
-        <v>892727</v>
+        <v>803522</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1832,10 +1709,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="D15" s="7">
-        <v>412548</v>
+        <v>295190</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1847,10 +1724,10 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>708</v>
+        <v>527</v>
       </c>
       <c r="I15" s="7">
-        <v>462582</v>
+        <v>371444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1862,10 +1739,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>1152</v>
+        <v>831</v>
       </c>
       <c r="N15" s="7">
-        <v>875131</v>
+        <v>666634</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1883,10 +1760,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>101047</v>
+        <v>60753</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1898,34 +1775,34 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>166207</v>
+        <v>64494</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>175</v>
+      </c>
+      <c r="N16" s="7">
+        <v>125246</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="7">
-        <v>402</v>
-      </c>
-      <c r="N16" s="7">
-        <v>267254</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,49 +1811,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>23079</v>
+        <v>14091</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7">
+        <v>19704</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>41</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30144</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>45</v>
+      </c>
+      <c r="N17" s="7">
+        <v>33795</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="7">
-        <v>64</v>
-      </c>
-      <c r="N17" s="7">
-        <v>53224</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,102 +1862,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>960</v>
+        <v>672</v>
       </c>
       <c r="D18" s="7">
-        <v>1035538</v>
+        <v>700629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>1504</v>
+        <v>1039</v>
       </c>
       <c r="I18" s="7">
-        <v>1052797</v>
+        <v>928569</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>2464</v>
+        <v>1711</v>
       </c>
       <c r="N18" s="7">
-        <v>2088335</v>
+        <v>1629197</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="D19" s="7">
-        <v>341893</v>
+        <v>368552</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>483</v>
+      </c>
+      <c r="I19" s="7">
+        <v>348365</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="7">
-        <v>375</v>
-      </c>
-      <c r="I19" s="7">
-        <v>404420</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>846</v>
+      </c>
+      <c r="N19" s="7">
+        <v>716916</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="7">
-        <v>660</v>
-      </c>
-      <c r="N19" s="7">
-        <v>746313</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,49 +1966,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="D20" s="7">
-        <v>303317</v>
+        <v>405043</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>709</v>
+      </c>
+      <c r="I20" s="7">
+        <v>520312</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>527</v>
-      </c>
-      <c r="I20" s="7">
-        <v>371780</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1163</v>
+      </c>
+      <c r="N20" s="7">
+        <v>925354</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="7">
-        <v>831</v>
-      </c>
-      <c r="N20" s="7">
-        <v>675098</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,49 +2017,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="D21" s="7">
-        <v>64490</v>
+        <v>131032</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>303</v>
+      </c>
+      <c r="I21" s="7">
+        <v>186188</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>108</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71181</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>465</v>
+      </c>
+      <c r="N21" s="7">
+        <v>317220</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="7">
-        <v>175</v>
-      </c>
-      <c r="N21" s="7">
-        <v>135672</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,49 +2068,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>14978</v>
+        <v>16317</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>57</v>
+      </c>
+      <c r="I22" s="7">
+        <v>33679</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>29</v>
-      </c>
-      <c r="I22" s="7">
-        <v>21594</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>78</v>
+      </c>
+      <c r="N22" s="7">
+        <v>49995</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="7">
-        <v>45</v>
-      </c>
-      <c r="N22" s="7">
-        <v>36572</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,102 +2119,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>672</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="7">
-        <v>724677</v>
+        <v>920944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>1039</v>
+        <v>1552</v>
       </c>
       <c r="I23" s="7">
-        <v>868976</v>
+        <v>1088543</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>1711</v>
+        <v>2552</v>
       </c>
       <c r="N23" s="7">
-        <v>1593654</v>
+        <v>2009486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>363</v>
+        <v>1261</v>
       </c>
       <c r="D24" s="7">
-        <v>384921</v>
+        <v>1627288</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1669</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1392096</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="7">
-        <v>483</v>
-      </c>
-      <c r="I24" s="7">
-        <v>389192</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>2930</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3019384</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M24" s="7">
-        <v>846</v>
-      </c>
-      <c r="N24" s="7">
-        <v>774113</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,49 +2223,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>454</v>
+        <v>1527</v>
       </c>
       <c r="D25" s="7">
-        <v>417521</v>
+        <v>1354907</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2526</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1626348</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4053</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2981254</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="7">
-        <v>709</v>
-      </c>
-      <c r="I25" s="7">
-        <v>508027</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1163</v>
-      </c>
-      <c r="N25" s="7">
-        <v>925548</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,49 +2274,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>162</v>
+        <v>486</v>
       </c>
       <c r="D26" s="7">
-        <v>139806</v>
+        <v>384778</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
+        <v>939</v>
+      </c>
+      <c r="I26" s="7">
+        <v>508651</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1425</v>
+      </c>
+      <c r="N26" s="7">
+        <v>893429</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>303</v>
-      </c>
-      <c r="I26" s="7">
-        <v>209109</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="7">
-        <v>465</v>
-      </c>
-      <c r="N26" s="7">
-        <v>348915</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,49 +2325,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D27" s="7">
-        <v>17263</v>
+        <v>77966</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="7">
+        <v>176</v>
+      </c>
+      <c r="I27" s="7">
+        <v>106617</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>262</v>
+      </c>
+      <c r="N27" s="7">
+        <v>184584</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="7">
-        <v>57</v>
-      </c>
-      <c r="I27" s="7">
-        <v>37207</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="P27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M27" s="7">
-        <v>78</v>
-      </c>
-      <c r="N27" s="7">
-        <v>54469</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,319 +2376,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1000</v>
+        <v>3360</v>
       </c>
       <c r="D28" s="7">
-        <v>959510</v>
+        <v>3444939</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>1552</v>
+        <v>5310</v>
       </c>
       <c r="I28" s="7">
-        <v>1143535</v>
+        <v>3633712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>2552</v>
+        <v>8670</v>
       </c>
       <c r="N28" s="7">
-        <v>2103046</v>
+        <v>7078651</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1261</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1489171</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1669</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1425807</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2930</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2914978</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1527</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1393789</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2526</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1671044</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M30" s="7">
-        <v>4053</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3064833</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>486</v>
-      </c>
-      <c r="D31" s="7">
-        <v>408612</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H31" s="7">
-        <v>939</v>
-      </c>
-      <c r="I31" s="7">
-        <v>563602</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1425</v>
-      </c>
-      <c r="N31" s="7">
-        <v>972214</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>86</v>
-      </c>
-      <c r="D32" s="7">
-        <v>78376</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="7">
-        <v>176</v>
-      </c>
-      <c r="I32" s="7">
-        <v>116725</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M32" s="7">
-        <v>262</v>
-      </c>
-      <c r="N32" s="7">
-        <v>195101</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3360</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3369948</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5310</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3777178</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8670</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7147126</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>233</v>
+      <c r="A29" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
